--- a/biology/Botanique/Campanulaceae/Campanulaceae.xlsx
+++ b/biology/Botanique/Campanulaceae/Campanulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Campanulaceae (Campanulacées) forment une famille de plantes dicotylédones qui comprend 2 000 espèces réparties en 90 genres environ.
 Ce sont des plantes herbacées le plus souvent pérennes, quelques arbres et arbustes, cosmopolites, des régions froides à tropicales (sauf l'Afrique tropicale).
@@ -516,9 +528,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Campanula, issu du latin de campana, cloche, en référence aux fleurs en forme de cloche. Or d’après Fournier, les cloches auraient été « inventées » dans une petite ville de Campanie, située à l’est de Naples, Nola (Italie)[1],  région que Pline l’ancien vantait pour la qualité de l’airain de ses cloches. La Campania aurait ensuite donné campana, cloche, puis campanile, clocher et enfin Campanula, la campanule. Outre sa célébrité pour les cloches, Nola est la ville de naissance de Giordano Bruno, dit « Nolanus » (1548-1600), père de l'héliocentrisme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Campanula, issu du latin de campana, cloche, en référence aux fleurs en forme de cloche. Or d’après Fournier, les cloches auraient été « inventées » dans une petite ville de Campanie, située à l’est de Naples, Nola (Italie),  région que Pline l’ancien vantait pour la qualité de l’airain de ses cloches. La Campania aurait ensuite donné campana, cloche, puis campanile, clocher et enfin Campanula, la campanule. Outre sa célébrité pour les cloches, Nola est la ville de naissance de Giordano Bruno, dit « Nolanus » (1548-1600), père de l'héliocentrisme.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] placent cette famille dans l'ordre des Asterales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Asterales.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (9 Jul 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (9 Jul 2010) :
 Adenophora Fisch.
 Apetahia Baill.
 Asyneuma Griseb. &amp; Schenck
@@ -665,7 +683,7 @@
 Unigenes E.Wimm.
 Wahlenbergia Schrad. ex Roth
 Zeugandra P.H.Davis
-Selon NCBI  (9 Jul 2010)[5] :
+Selon NCBI  (9 Jul 2010) :
 Adenophora
 Apetahia
 Asyneuma
@@ -738,7 +756,7 @@
 Triodanis
 Wahlenbergia
 Wimmerella
-Selon DELTA Angio           (9 Jul 2010)[6] :
+Selon DELTA Angio           (9 Jul 2010) :
 Adenophora
 Apetahia
 Astrocodon
@@ -827,7 +845,7 @@
 Unigenes
 Wahlenbergia
 Zeugandra
-Selon ITIS      (9 Jul 2010)[7] :
+Selon ITIS      (9 Jul 2010) :
 Asyneuma Griseb. &amp; Schenk
 Asyneura
 Brighamia Gray
